--- a/paso2_multiclass_1000_LR_KNN_CART_RFC.xlsx
+++ b/paso2_multiclass_1000_LR_KNN_CART_RFC.xlsx
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.7563694267515924</v>
+        <v>0.7373572593800979</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6257961783439491</v>
+        <v>0.6280587275693311</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7818471337579618</v>
+        <v>0.7601957585644372</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.785031847133758</v>
+        <v>0.765089722675367</v>
       </c>
     </row>
   </sheetData>
